--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter05/SingleCovariance.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter05/SingleCovariance.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E8F0AF-6594-4057-860E-358CC7507973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3324F4FE-D032-471D-BEC3-6834983D5F64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48930" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,6 +458,10 @@
       <c r="B2">
         <v>3</v>
       </c>
+      <c r="C2">
+        <f>(A2-AVERAGE($A$2:$A$11))*(B2-AVERAGE($B$2:$B$11))</f>
+        <v>4.6799999999999988</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,6 +473,14 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">(A3-AVERAGE($A$2:$A$11))*(B3-AVERAGE($B$2:$B$11))</f>
+        <v>1.379999999999999</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.COVARIANCE.P(A2:A11, B2:B11)</f>
+        <v>-0.47999999999999987</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -471,6 +489,14 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-7.9200000000000008</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.COVARIANCE.S(A2:A11, B2:B11)</f>
+        <v>-0.53333333333333321</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -479,6 +505,10 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999947</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -487,6 +517,10 @@
       <c r="B6">
         <v>9</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-7.5199999999999987</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -495,6 +529,10 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.68000000000000071</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -503,6 +541,10 @@
       <c r="B8">
         <v>8</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12.580000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -511,6 +553,10 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999992</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -519,6 +565,10 @@
       <c r="B10">
         <v>4</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.41999999999999987</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -526,6 +576,16 @@
       </c>
       <c r="B11">
         <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-10.119999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>-0.47999999999999987</v>
       </c>
     </row>
   </sheetData>
